--- a/測試.xlsx
+++ b/測試.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9600" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9600" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="工作表1" sheetId="1" state="visible" r:id="rId1"/>
@@ -6297,10 +6297,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.2"/>
@@ -6510,174 +6510,6 @@
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" s="0" t="inlineStr">
-        <is>
-          <t>01F0099S-01H0163S</t>
-        </is>
-      </c>
-      <c r="C3" s="0" t="inlineStr">
-        <is>
-          <t>01F0099S</t>
-        </is>
-      </c>
-      <c r="D3" s="0" t="inlineStr">
-        <is>
-          <t>01H0163S</t>
-        </is>
-      </c>
-      <c r="E3" s="0" t="inlineStr">
-        <is>
-          <t>五堵-汐止&amp;汐止系統</t>
-        </is>
-      </c>
-      <c r="F3" s="0" t="inlineStr">
-        <is>
-          <t>0000101006000F</t>
-        </is>
-      </c>
-      <c r="G3" s="0" t="inlineStr">
-        <is>
-          <t>00001A0001600A</t>
-        </is>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>121.65948</v>
-      </c>
-      <c r="I3" s="0" t="n">
-        <v>25.076263</v>
-      </c>
-      <c r="J3" s="0" t="n">
-        <v>121.59873</v>
-      </c>
-      <c r="K3" s="0" t="n">
-        <v>25.064007</v>
-      </c>
-      <c r="L3" s="7" t="n"/>
-      <c r="M3" s="7" t="n"/>
-      <c r="N3" s="0" t="inlineStr">
-        <is>
-          <t>0000101006000F;0000101007000F;0000101007010F;0000101007030F;0000101007080F;0000100001160F;0000100001190F;0000100001200F;00001A1001000F;00001A0001300F;00001A0001400F;00001A0001450A;00001A0001500A;00001A0001600A</t>
-        </is>
-      </c>
-      <c r="O3" s="0" t="inlineStr">
-        <is>
-          <t>000010;000010;000010;000010;000010;000010;000010;000010;00001A;00001A;00001A;00001A;00001A;00001A</t>
-        </is>
-      </c>
-      <c r="P3" s="0" t="inlineStr">
-        <is>
-          <t>國道1號;國道1號;國道1號;國道1號;國道1號;國道1號;國道1號;國道1號;國道1號汐止五股高架道路;國道1號汐止五股高架道路;國道1號汐止五股高架道路;國道1號汐止五股高架道路;國道1號汐止五股高架道路;國道1號汐止五股高架道路</t>
-        </is>
-      </c>
-      <c r="Q3" s="0" t="inlineStr">
-        <is>
-          <t>0;0;0;0;0;0;0;0;0;0;0;0;0;0</t>
-        </is>
-      </c>
-      <c r="R3" s="0" t="inlineStr">
-        <is>
-          <t>S;S;S;S;S;S;S;S;S;S;S;S;S;S</t>
-        </is>
-      </c>
-      <c r="S3" s="0" t="inlineStr">
-        <is>
-          <t>0;0;0;0;0;0;0;0;0;0;0;0;0;0</t>
-        </is>
-      </c>
-      <c r="T3" s="0" t="inlineStr">
-        <is>
-          <t>23.09.1;23.09.1;23.09.1;23.09.1;23.09.1;23.09.1;23.09.1;23.09.1;23.09.1;23.09.1;23.09.1;23.09.1;23.09.1;23.09.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="0" t="inlineStr">
-        <is>
-          <t>01F0099S-03F0054N</t>
-        </is>
-      </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>01F0099S</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>03F0054N</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>五堵-汐止系統</t>
-        </is>
-      </c>
-      <c r="F4" s="0" t="inlineStr">
-        <is>
-          <t>0000101006000F</t>
-        </is>
-      </c>
-      <c r="G4" s="0" t="inlineStr">
-        <is>
-          <t>0000300100520C</t>
-        </is>
-      </c>
-      <c r="H4" s="0" t="n">
-        <v>121.65948</v>
-      </c>
-      <c r="I4" s="0" t="n">
-        <v>25.076263</v>
-      </c>
-      <c r="J4" s="0" t="n">
-        <v>121.681786</v>
-      </c>
-      <c r="K4" s="0" t="n">
-        <v>25.103746</v>
-      </c>
-      <c r="L4" s="7" t="n"/>
-      <c r="M4" s="7" t="n"/>
-      <c r="N4" s="0" t="inlineStr">
-        <is>
-          <t>0000101006000F;0000301103030F;0000301103040F;0000301103050F;0000301103080F;0000301103100F;0000300100900F;0000300100880F;0000300100820F;0000300100810C;0000300100700C;0000300100630C;0000300100600C;0000300100570C</t>
-        </is>
-      </c>
-      <c r="O4" s="0" t="inlineStr">
-        <is>
-          <t>000010;000030;000030;000030;000030;000030;000030;000030;000030;000030;000030;000030;000030;000030</t>
-        </is>
-      </c>
-      <c r="P4" s="0" t="inlineStr">
-        <is>
-          <t>國道1號;國道3號;國道3號;國道3號;國道3號;國道3號;國道3號;國道3號;國道3號;國道3號;國道3號;國道3號;國道3號;國道3號</t>
-        </is>
-      </c>
-      <c r="Q4" s="0" t="inlineStr">
-        <is>
-          <t>0;0;0;0;0;0;0;0;0;0;0;0;0;0</t>
-        </is>
-      </c>
-      <c r="R4" s="0" t="inlineStr">
-        <is>
-          <t>S;N;N;N;N;N;N;N;N;N;N;N;N;N</t>
-        </is>
-      </c>
-      <c r="S4" s="0" t="inlineStr">
-        <is>
-          <t>0;1;1;1;1;1;1;1;1;1;1;1;1;1</t>
-        </is>
-      </c>
-      <c r="T4" s="0" t="inlineStr">
-        <is>
-          <t>23.09.1;23.09.1;23.09.1;23.09.1;23.09.1;23.09.1;23.09.1;23.09.1;23.09.1;23.09.1;23.09.1;23.09.1;23.09.1;23.09.1</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -6692,7 +6524,7 @@
   </sheetPr>
   <dimension ref="A1:T3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
